--- a/TInfenion_35H/findchip_stock.xlsx
+++ b/TInfenion_35H/findchip_stock.xlsx
@@ -1,45 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7689C-97AC-914E-89CC-FF59D09A3622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="findchip_stock" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,21 +54,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,14 +415,1325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D707305E-F1CE-1A43-A0C4-768AD7A067F3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DD350N12K-K</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F1" t="n">
+        <v>222</v>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DD350N12K-K</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>222</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DD350N12K-K</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>222</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DD350N12K-K-EUPC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DD350N12KKHPSA1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DD350N14KHPSA1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DD350N16K-EUPC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Galco Industrial Electronics</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DD350N16KHPSA1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/DD350N16KHPSA1/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DD350N16KHPSA1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DD350N16KHPSA1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Verical</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.verical.com/pd/murata-manufacturing-ceramic---multilayer-DD350N16KHPSA1?utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DD350N16KHPSA1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DD350N16KHPSA1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/DD350N16KHPSA1?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DD350N16KHPSA1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Arrow Electronics China</t>
+        </is>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/DD350N16KHPSA1/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DD350N16KHPSA1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DD350N16KOF</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/DD350N16KOF/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DD350N16KOF</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DD350N16KOF</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DD350N16KOF</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Verical</t>
+        </is>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.verical.com/pd/murata-manufacturing-ceramic---multilayer-DD350N16KOF?utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DD350N16KOF</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/DD350N16KOF?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DD350N16KOF</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Arrow Electronics China</t>
+        </is>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/DD350N16KOF/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DD350N16KOF</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DD350N18K-EUPC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/DD350N18K-EUPC/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DD350N18K-EUPC</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DD350N18K-EUPC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Verical</t>
+        </is>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.verical.com/pd/murata-manufacturing-ceramic---multilayer-DD350N18K-EUPC?utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DD350N18K-EUPC</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DD350N18K-EUPC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Arrow Electronics China</t>
+        </is>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/DD350N18K-EUPC/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DD350N18K-EUPC</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DD350N18KHPSA1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/DD350N18KHPSA1/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DD350N18KHPSA1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DD350N18KHPSA1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Verical</t>
+        </is>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.verical.com/pd/murata-manufacturing-ceramic---multilayer-DD350N18KHPSA1?utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DD350N18KHPSA1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DD350N18KHPSA1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Arrow Electronics China</t>
+        </is>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/DD350N18KHPSA1/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DD350N18KHPSA1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DD360N22KHPSA1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/DD360N22KHPSA1/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DD360N22KHPSA1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DD360N22KHPSA1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Verical</t>
+        </is>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.verical.com/pd/murata-manufacturing-ceramic---multilayer-DD360N22KHPSA1?utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DD360N22KHPSA1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Chip1Stop</t>
+        </is>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.chip1stop.com/product/detail?partId=MURA-0093105&amp;utm_term=DD360N22KHPSA1&amp;cid=MURA-0093105</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DD360N22KHPSA1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/DD360N22KHPSA1?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DD360N22KHPSA1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>